--- a/biology/Botanique/Enterolobium_contortisiliquum/Enterolobium_contortisiliquum.xlsx
+++ b/biology/Botanique/Enterolobium_contortisiliquum/Enterolobium_contortisiliquum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Timbó colorado, Timbó-puitá, Pacará ou Oreja de negro (Enterolobium contortisiliquum) est un arbre originaire des régions tropicales et subtropicales de l'Amérique du Sud, de port majestueux.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de grande taille, atteignant les 30 m de hauteur et un diamètre de 2 m au tronc, bien qu'on ait enregistré des exemplaires de plus du triple de ce diamètre. Il est assez héliophile, ce qui fait que ceux qui croissent en milieu selvatique ont un fût plutôt droit, tandis que les exemplaires solitaires sont plus tortueux. Le feuillage est large et de forme hémisphérique.
 Il est caducifolié tardif.
@@ -544,7 +558,9 @@
           <t>Habitat et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Timbó colorado se rencontre depuis le sud du Brésil et le nord-ouest de l'Uruguay jusqu'en Bolivie dans la précordillère. Il est présent dans la forêt de la province de Misiones et tout autour, dans les forêts en galerie du bassin du río Paraná et du río de la Plata, dans le Gran Chaco et dans la partie est de la région des Yungas.
 Dans la zone des Yungas c'est une des espèces dominantes. Il apparaît normalement isolé. 
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le timbó s'apprécie pour sa valeur ornamentale et pour l'ombre de son large et ample feuillage 
 qui le rend apte pour les espaces verts de grande taille et les parterres des avenues.
@@ -613,7 +631,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mimosa contortisiliqua Vell.
 Feuilleea contortisiliqua (Vell.) Kuntze
